--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Norbi\Development\Exin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Norbi\Development\Exin\Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="151">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -507,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,12 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,9 +576,9 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,8 +2363,12 @@
       <c r="C83" s="25">
         <v>42119</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="D83" s="25">
+        <v>42156</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F83" s="25" t="s">
         <v>9</v>
       </c>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Norbi\Development\Exin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Norbi\Development\Exin\Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="152">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>Csináljon biztonsági mentést, mondjuk naponta</t>
+  </si>
+  <si>
+    <t>Alternate row colors in ListViews</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,12 +541,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -557,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -582,9 +579,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K90"/>
+  <dimension ref="B1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,20 +2356,24 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="24" t="s">
+    <row r="83" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="25">
+      <c r="C83" s="15">
         <v>42119</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="25"/>
-      <c r="H83" s="26" t="s">
+      <c r="D83" s="15">
+        <v>42156</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="16" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2481,6 +2479,20 @@
       </c>
       <c r="H90" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42157</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="155">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -486,6 +486,15 @@
   </si>
   <si>
     <t>Alternate row colors in ListViews</t>
+  </si>
+  <si>
+    <t>Template based solution for: FileRepoDeveloper</t>
+  </si>
+  <si>
+    <t>Rename MsSql connStr-s</t>
+  </si>
+  <si>
+    <t>They were here earlier, so they have the "default" names (eg ExinConnectionString), but it's misleading. (so eg shoud be ExinMsConnectionString)</t>
   </si>
 </sst>
 </file>
@@ -883,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K91"/>
+  <dimension ref="B1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>19</v>
       </c>
@@ -2342,7 +2351,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
         <v>14</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>17</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>17</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>17</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>17</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>17</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>23</v>
       </c>
@@ -2493,6 +2502,37 @@
       </c>
       <c r="H91" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="1">
+        <v>42158</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="1">
+        <v>42158</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
+        <v>153</v>
+      </c>
+      <c r="J93" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="158">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>They were here earlier, so they have the "default" names (eg ExinConnectionString), but it's misleading. (so eg shoud be ExinMsConnectionString)</t>
+  </si>
+  <si>
+    <t>ImportDataToDb should not depend on config files. It should be configurable from code, because we will need that once we will have options opportunity. Or just set the config files before calling it?</t>
+  </si>
+  <si>
+    <t>Static classes should follow the Singleton design pattern instead of being static. Better said, they should expose an Instance static getter; but they should not be singletons. New instances of them, with new configuration should be createable, we need that for ImportDataToDb</t>
+  </si>
+  <si>
+    <t>Fill with sandbox data: Solution/Repository/FileRepoDeveloper.template/</t>
   </si>
 </sst>
 </file>
@@ -892,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K93"/>
+  <dimension ref="B1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,6 +2542,48 @@
       </c>
       <c r="J93" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="1">
+        <v>42158</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="1">
+        <v>42158</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1">
+        <v>42158</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -15,12 +15,12 @@
     <sheet name="todo" sheetId="4" r:id="rId1"/>
     <sheet name="Kategóriák" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="159">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>Fill with sandbox data: Solution/Repository/FileRepoDeveloper.template/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + DefaultValueProvider.cs</t>
   </si>
 </sst>
 </file>
@@ -903,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,6 +1205,9 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="160">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t xml:space="preserve"> + DefaultValueProvider.cs</t>
+  </si>
+  <si>
+    <t>ExportToXlsx</t>
   </si>
 </sst>
 </file>
@@ -904,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K96"/>
+  <dimension ref="B1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,6 +2593,20 @@
       </c>
       <c r="H96" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="1">
+        <v>42161</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="162">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>ExportToXlsx</t>
+  </si>
+  <si>
+    <t>ExinConnectionString gets recalculated on every connection opening. Do a static caching</t>
+  </si>
+  <si>
+    <t>DeepClone method works with binary formatter. It haven't worked with json serialization. Solve this, we will need json serialization later</t>
   </si>
 </sst>
 </file>
@@ -907,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K97"/>
+  <dimension ref="B1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,6 +2613,34 @@
       </c>
       <c r="H97" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="1">
+        <v>42163</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="1">
+        <v>42163</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="163">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>DeepClone method works with binary formatter. It haven't worked with json serialization. Solve this, we will need json serialization later</t>
+  </si>
+  <si>
+    <t>MonthlyExpenses: if reordered a column, and click Again, the arraw at header remains, but the new list won't be reordered due to it</t>
   </si>
 </sst>
 </file>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K99"/>
+  <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,6 +2644,20 @@
       </c>
       <c r="H99" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42167</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="164">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>MonthlyExpenses: if reordered a column, and click Again, the arraw at header remains, but the new list won't be reordered due to it</t>
+  </si>
+  <si>
+    <t>Adding expense item with empty Title is possible</t>
   </si>
 </sst>
 </file>
@@ -916,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K100"/>
+  <dimension ref="B1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,6 +2661,20 @@
       </c>
       <c r="H100" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="1">
+        <v>42168</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="169">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -522,6 +522,21 @@
   </si>
   <si>
     <t>Adding expense item with empty Title is possible</t>
+  </si>
+  <si>
+    <t>Eliminate high level dependencies of (high level) DAL managers</t>
+  </si>
+  <si>
+    <t>So, where possibly, there should be used eg ICategoryManagerDao, and not ICategoryManager</t>
+  </si>
+  <si>
+    <t>Optimalization: Check if we really need IList in DAL Manager (eg CategoryManager.GetAll). IEnumerable would be better</t>
+  </si>
+  <si>
+    <t>SummaryEngineBase.SaveData: proper error message</t>
+  </si>
+  <si>
+    <t>Save to-db/to-file log to ui properly</t>
   </si>
 </sst>
 </file>
@@ -919,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K101"/>
+  <dimension ref="B1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>101</v>
       </c>
@@ -2635,7 +2650,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>101</v>
       </c>
@@ -2649,7 +2664,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>15</v>
       </c>
@@ -2663,18 +2678,77 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C101" s="1">
-        <v>42168</v>
+        <v>42167</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H101" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="1">
+        <v>42167</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s">
+        <v>164</v>
+      </c>
+      <c r="J102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1">
+        <v>42167</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="1">
+        <v>42167</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42167</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="170">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>A GetHashCode() fv-t igazából nem kell meghívni az Equality vizsgálatkor. Amikor belegondoltam, arra gondoltam, hogy az gyorsít, mert ha nem egyezik a 2 objektum hash kódja, akkor úgysem lehetnek azonosak, nem kell végigmenni a "hosszú" összehasonlításon. Viszont a GetHashCode során ugyanezeket a property-ket használja fel a hash kód készítéséhez... és ott még csak nem is áll meg, ha pl már az 1. property eltérő lenne</t>
-  </si>
-  <si>
-    <t>ImportDataToDb -&gt; ExportDataToFileRepo &lt;--- Így megoldható könnyen unit-ok átnevezése + És ekkor clean-elje a db-t, hogy exe-ből enterre futtatható legyen</t>
   </si>
   <si>
     <t>amikor prompt-ol dátumváltáskor, h változások mentése - legyen mégse gomb</t>
@@ -284,9 +281,6 @@
     <t>Help rész, ahol billentyű kombinációk le vannak írva, plusz egyéb képességek; pl mint át lehet rendezni a wpf gridview oszlopokat (én se tudtam, gyári); meg rendezés implementált, stb</t>
   </si>
   <si>
-    <t>Ne merge-gel szúrja be a summary-kat az ImportDataToDb</t>
-  </si>
-  <si>
     <t>BUG6</t>
   </si>
   <si>
@@ -350,9 +344,6 @@
     <t>Első induláskor figyelmeztessen, h sok a piros, de nem kell megijedni tőle</t>
   </si>
   <si>
-    <t>Az importDataToDb -t lehessen paraméterezni h első induláskor írjon ki megnyugtató szöveget</t>
-  </si>
-  <si>
     <t>RepoPaths statikus, nehogy ez is előbb inicalizálódjon, mint kéne… Élesben még nem próbáltam ki</t>
   </si>
   <si>
@@ -497,12 +488,6 @@
     <t>They were here earlier, so they have the "default" names (eg ExinConnectionString), but it's misleading. (so eg shoud be ExinMsConnectionString)</t>
   </si>
   <si>
-    <t>ImportDataToDb should not depend on config files. It should be configurable from code, because we will need that once we will have options opportunity. Or just set the config files before calling it?</t>
-  </si>
-  <si>
-    <t>Static classes should follow the Singleton design pattern instead of being static. Better said, they should expose an Instance static getter; but they should not be singletons. New instances of them, with new configuration should be createable, we need that for ImportDataToDb</t>
-  </si>
-  <si>
     <t>Fill with sandbox data: Solution/Repository/FileRepoDeveloper.template/</t>
   </si>
   <si>
@@ -537,6 +522,24 @@
   </si>
   <si>
     <t>Save to-db/to-file log to ui properly</t>
+  </si>
+  <si>
+    <t>ImportDataToDb -&gt; ExportDataToFileRepo &lt;--- this way, it would be easy to rename eg units + also do a clean on the db, in order to be runnable from exe</t>
+  </si>
+  <si>
+    <t>The project's new name is TransportData</t>
+  </si>
+  <si>
+    <t>Don't use merge in TransportData for adding the summaries</t>
+  </si>
+  <si>
+    <t>The TransportData project should be parametrized, so the first time it should print calming messages. + Also the WPF app should do so</t>
+  </si>
+  <si>
+    <t>TransportData should not depend on config files. It should be configurable from code, because we will need that once we will have options opportunity. Or just set the config files before calling it?</t>
+  </si>
+  <si>
+    <t>Static classes should follow the Singleton design pattern instead of being static. Better said, they should expose an Instance static getter; but they should not be singletons. New instances of them, with new configuration should be createable, we need that for TransportData</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -630,6 +633,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,17 +955,17 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -975,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
@@ -1122,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1183,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1479,7 +1483,7 @@
         <v>42008</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>26</v>
@@ -1491,7 +1495,7 @@
         <v>46</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,23 +1702,30 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+    <row r="42" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="15">
         <v>41992</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="18"/>
+      <c r="D42" s="15">
+        <v>42181</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
@@ -1734,7 +1745,7 @@
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1755,7 +1766,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1776,7 +1787,7 @@
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1793,14 +1804,14 @@
         <v>31</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1817,10 +1828,10 @@
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1841,10 +1852,10 @@
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1865,10 +1876,10 @@
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -1882,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J50" s="13"/>
     </row>
@@ -1897,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J51" s="13"/>
     </row>
@@ -1919,7 +1930,7 @@
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1936,7 +1947,7 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="6" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1957,10 +1968,10 @@
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1980,13 +1991,13 @@
         <v>26</v>
       </c>
       <c r="G55" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2003,7 +2014,7 @@
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J56" s="22"/>
     </row>
@@ -2018,7 +2029,7 @@
         <v>28</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J57" s="1"/>
     </row>
@@ -2036,7 +2047,7 @@
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2053,7 +2064,7 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -2067,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="H60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -2081,12 +2092,12 @@
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1">
         <v>42008</v>
@@ -2095,15 +2106,15 @@
         <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" s="11">
         <v>42010</v>
@@ -2119,7 +2130,7 @@
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -2133,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -2146,8 +2157,8 @@
       <c r="F65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>106</v>
+      <c r="H65" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -2158,10 +2169,10 @@
         <v>42015</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2182,7 +2193,7 @@
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -2196,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="H68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -2210,7 +2221,7 @@
         <v>9</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -2224,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -2238,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="H71" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2255,7 +2266,7 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -2269,10 +2280,10 @@
         <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2289,7 +2300,7 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -2303,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2320,7 +2331,7 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -2334,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -2348,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -2362,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -2376,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -2390,10 +2401,10 @@
         <v>28</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -2407,7 +2418,7 @@
         <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2439,7 @@
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2456,7 @@
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -2459,7 +2470,7 @@
         <v>26</v>
       </c>
       <c r="H85" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -2473,7 +2484,7 @@
         <v>28</v>
       </c>
       <c r="H86" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -2487,7 +2498,7 @@
         <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2515,7 @@
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -2518,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="H89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -2532,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="H90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="H91" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -2560,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="H92" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -2574,10 +2585,10 @@
         <v>28</v>
       </c>
       <c r="H93" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -2591,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="H94" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -2605,7 +2616,7 @@
         <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -2619,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="H96" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -2633,12 +2644,12 @@
         <v>9</v>
       </c>
       <c r="H97" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C98" s="1">
         <v>42163</v>
@@ -2647,12 +2658,12 @@
         <v>28</v>
       </c>
       <c r="H98" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1">
         <v>42163</v>
@@ -2661,7 +2672,7 @@
         <v>28</v>
       </c>
       <c r="H99" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -2675,7 +2686,7 @@
         <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -2689,7 +2700,7 @@
         <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -2703,10 +2714,10 @@
         <v>28</v>
       </c>
       <c r="H102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J102" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -2720,7 +2731,7 @@
         <v>28</v>
       </c>
       <c r="H103" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -2734,7 +2745,7 @@
         <v>28</v>
       </c>
       <c r="H104" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -2748,7 +2759,7 @@
         <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2769,87 +2780,87 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="175">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -540,6 +540,21 @@
   </si>
   <si>
     <t>Static classes should follow the Singleton design pattern instead of being static. Better said, they should expose an Instance static getter; but they should not be singletons. New instances of them, with new configuration should be createable, we need that for TransportData</t>
+  </si>
+  <si>
+    <t>Log: Exceptions: there won't be any StackTrace if not thrown</t>
+  </si>
+  <si>
+    <t>Monthly summaries .xml can be corrupt on exit, because of the async execution</t>
+  </si>
+  <si>
+    <t>Monthly Incomes' add new item form should look like Daily expneses'. I mean the Labels should remain left even if the Window width is very wide</t>
+  </si>
+  <si>
+    <t>It's very suspicius that sometimes there is data loss, when clicking the Add button, and editing that new line. It happened to me, that I've added a new row with add, which was a copy of an old one; edited it, than pressed Add again (by reflex). After that, I've removed the new row (or the old one?), than saved the changes. Later came back, both rows were disappeared!</t>
+  </si>
+  <si>
+    <t>Menu is not localized (English only)</t>
   </si>
 </sst>
 </file>
@@ -938,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K105"/>
+  <dimension ref="B1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,6 +2775,76 @@
       </c>
       <c r="H105" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="1">
+        <v>42205</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="1">
+        <v>42213</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="1">
+        <v>42229</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="1">
+        <v>42241</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="1">
+        <v>42245</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="177">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>Menu is not localized (English only)</t>
+  </si>
+  <si>
+    <t>The app version at commit (3383988c3f5440b451dab9f55ff6dcbe189410e2) can't init its Sqlite db file if the repo does not exists</t>
+  </si>
+  <si>
+    <t>When saving the changes on exit (so the user pressed Alt+F4, the app asked if it want the changes to be saved; the user clicked yes), the closing procedure does not await background tasks</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K110"/>
+  <dimension ref="B1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,9 +2853,44 @@
         <v>174</v>
       </c>
     </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1">
+        <v>42246</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="11">
+        <v>42246</v>
+      </c>
+      <c r="D112" s="11">
+        <v>42246</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="11"/>
+      <c r="H112" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="178">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>When saving the changes on exit (so the user pressed Alt+F4, the app asked if it want the changes to be saved; the user clicked yes), the closing procedure does not await background tasks</t>
+  </si>
+  <si>
+    <t>Only if the repo root does exist, but the subfolders not. In this case, the repo's subdirectory structure was not initialized. In practise, this is not a valid problem</t>
   </si>
 </sst>
 </file>
@@ -961,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,18 +2856,28 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
+    <row r="111" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="11">
         <v>42246</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="D111" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H111" t="s">
+      <c r="G111" s="11"/>
+      <c r="H111" s="12" t="s">
         <v>175</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="180">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Can not reproducate</t>
   </si>
   <si>
-    <t>Can't reproducate</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -564,6 +561,15 @@
   </si>
   <si>
     <t>Only if the repo root does exist, but the subfolders not. In this case, the repo's subdirectory structure was not initialized. In practise, this is not a valid problem</t>
+  </si>
+  <si>
+    <t>Duplicated</t>
+  </si>
+  <si>
+    <t>Can't reproduce anymore</t>
+  </si>
+  <si>
+    <t>Solved another way…</t>
   </si>
 </sst>
 </file>
@@ -964,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
@@ -1150,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1265,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1513,7 @@
         <v>42008</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>26</v>
@@ -1744,10 +1750,10 @@
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="J42" s="15"/>
     </row>
@@ -1971,7 +1977,7 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1992,10 +1998,10 @@
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2057,20 +2063,24 @@
       </c>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="15">
         <v>41995</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="D58" s="15">
+        <v>42252</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9" t="s">
+      <c r="G58" s="15"/>
+      <c r="H58" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2121,7 +2131,7 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1">
         <v>42008</v>
@@ -2130,15 +2140,15 @@
         <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H62" t="s">
         <v>100</v>
-      </c>
-      <c r="H62" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="11">
         <v>42010</v>
@@ -2154,7 +2164,7 @@
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -2168,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -2182,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -2196,7 +2206,7 @@
         <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2217,7 +2227,7 @@
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -2231,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -2245,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="H69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -2273,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="H71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2290,7 +2300,7 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -2304,10 +2314,10 @@
         <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2324,7 +2334,7 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -2338,24 +2348,31 @@
         <v>9</v>
       </c>
       <c r="H75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="15">
+        <v>42102</v>
+      </c>
+      <c r="D76" s="15">
+        <v>42252</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="5">
-        <v>42102</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="6" t="s">
-        <v>124</v>
+      <c r="J76" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -2369,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -2383,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -2397,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -2411,24 +2428,30 @@
         <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="11">
         <v>42119</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="D81" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="H81" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -2442,7 +2465,7 @@
         <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2463,24 +2486,28 @@
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="15">
         <v>42129</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5" t="s">
+      <c r="D84" s="15">
+        <v>42252</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="6" t="s">
-        <v>134</v>
+      <c r="G84" s="15"/>
+      <c r="H84" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -2494,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="H85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -2508,7 +2535,7 @@
         <v>28</v>
       </c>
       <c r="H86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -2522,24 +2549,28 @@
         <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="15">
         <v>42139</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5" t="s">
+      <c r="D88" s="15">
+        <v>42252</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="6" t="s">
-        <v>142</v>
+      <c r="G88" s="15"/>
+      <c r="H88" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -2553,7 +2584,7 @@
         <v>9</v>
       </c>
       <c r="H89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -2567,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="H90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -2581,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="H91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -2595,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="H92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -2609,10 +2640,10 @@
         <v>28</v>
       </c>
       <c r="H93" t="s">
+        <v>149</v>
+      </c>
+      <c r="J93" t="s">
         <v>150</v>
-      </c>
-      <c r="J93" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -2626,7 +2657,7 @@
         <v>28</v>
       </c>
       <c r="H94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -2640,7 +2671,7 @@
         <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -2654,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="H96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -2668,12 +2699,12 @@
         <v>9</v>
       </c>
       <c r="H97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1">
         <v>42163</v>
@@ -2682,12 +2713,12 @@
         <v>28</v>
       </c>
       <c r="H98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1">
         <v>42163</v>
@@ -2696,7 +2727,7 @@
         <v>28</v>
       </c>
       <c r="H99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -2710,7 +2741,7 @@
         <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -2724,7 +2755,7 @@
         <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -2738,10 +2769,10 @@
         <v>28</v>
       </c>
       <c r="H102" t="s">
+        <v>158</v>
+      </c>
+      <c r="J102" t="s">
         <v>159</v>
-      </c>
-      <c r="J102" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -2755,7 +2786,7 @@
         <v>28</v>
       </c>
       <c r="H103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -2769,7 +2800,7 @@
         <v>28</v>
       </c>
       <c r="H104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -2783,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -2797,21 +2828,28 @@
         <v>26</v>
       </c>
       <c r="H106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="11">
+        <v>42213</v>
+      </c>
+      <c r="D107" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="1">
-        <v>42213</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -2825,7 +2863,7 @@
         <v>28</v>
       </c>
       <c r="H108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -2839,7 +2877,7 @@
         <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -2853,7 +2891,7 @@
         <v>28</v>
       </c>
       <c r="H110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2874,10 +2912,10 @@
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2898,7 +2936,7 @@
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2919,87 +2957,87 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="181">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Solved another way…</t>
+  </si>
+  <si>
+    <t>Can't save daily expenses when the statistics files are not created yet. This means probably when no monthly expenses were already created - which is impossible without daily expenses</t>
   </si>
 </sst>
 </file>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K112"/>
+  <dimension ref="B1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,17 +2576,24 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
+    <row r="89" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="11">
         <v>42139</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="D89" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2601,17 +2611,24 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="11">
         <v>42157</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="D91" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2937,6 +2954,20 @@
       <c r="G112" s="11"/>
       <c r="H112" s="12" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="1">
+        <v>42252</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="184">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>Can't save daily expenses when the statistics files are not created yet. This means probably when no monthly expenses were already created - which is impossible without daily expenses</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>This problem did not exist. Only Visual Studio tricked me… With "Break when CLR Exception is thrown" --&gt; this was ticked…</t>
+  </si>
+  <si>
+    <t>I've exchanged the code to the JSON.NET based version, and somehow it worked now without any problem</t>
   </si>
 </sst>
 </file>
@@ -973,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,18 +2742,28 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+    <row r="99" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="11">
         <v>42163</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="D99" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H99" t="s">
+      <c r="G99" s="11"/>
+      <c r="H99" s="12" t="s">
         <v>155</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -2956,18 +2975,28 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="11">
         <v>42252</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="D113" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H113" t="s">
+      <c r="G113" s="11"/>
+      <c r="H113" s="12" t="s">
         <v>180</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="187">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -583,12 +583,21 @@
   <si>
     <t>I've exchanged the code to the JSON.NET based version, and somehow it worked now without any problem</t>
   </si>
+  <si>
+    <t>More than likely I've done what I've meant with this. TransportData is fininshed, a lot of static classes got this new structure</t>
+  </si>
+  <si>
+    <t>BUG9</t>
+  </si>
+  <si>
+    <t>There were TransactionItems saved with Category 0 (None - non existing category, this should not have happend)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +609,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -650,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -676,6 +692,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K113"/>
+  <dimension ref="B1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,17 +2658,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+    <row r="92" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="11">
         <v>42158</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="D92" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2686,18 +2710,28 @@
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="11">
         <v>42158</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="D95" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95" s="11"/>
+      <c r="H95" s="12" t="s">
         <v>168</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -2997,6 +3031,23 @@
       </c>
       <c r="J113" s="11" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="1">
+        <v>42252</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="187">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,20 +2679,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
+    <row r="93" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="11">
         <v>42158</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="D93" s="11">
+        <v>42253</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H93" t="s">
+      <c r="G93" s="11"/>
+      <c r="H93" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2734,17 +2741,24 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+    <row r="96" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="11">
         <v>42158</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="D96" s="11">
+        <v>42253</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="189">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -591,6 +591,12 @@
   </si>
   <si>
     <t>There were TransactionItems saved with Category 0 (None - non existing category, this should not have happend)</t>
+  </si>
+  <si>
+    <t>ReOpened</t>
+  </si>
+  <si>
+    <t>Changing (back) the DeepClone method to work with Newtonsoft.Json brought back an old problem: eg Category 108 can became 101 during the serialization</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -693,6 +699,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K114"/>
+  <dimension ref="B1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
@@ -2776,17 +2785,24 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
+    <row r="98" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="11">
         <v>42163</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="D98" s="11">
+        <v>42253</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H98" t="s">
+      <c r="G98" s="11"/>
+      <c r="H98" s="12" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2814,23 +2830,29 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="1">
-        <v>42167</v>
-      </c>
-      <c r="F100" s="1" t="s">
+    <row r="100" spans="2:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="27">
+        <v>42253</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F100" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H100" t="s">
-        <v>156</v>
-      </c>
+      <c r="G100" s="27"/>
+      <c r="H100" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J100" s="27"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C101" s="1">
         <v>42167</v>
@@ -2839,24 +2861,21 @@
         <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C102" s="1">
         <v>42167</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H102" t="s">
-        <v>158</v>
-      </c>
-      <c r="J102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -2870,12 +2889,15 @@
         <v>28</v>
       </c>
       <c r="H103" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="J103" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1">
         <v>42167</v>
@@ -2884,7 +2906,7 @@
         <v>28</v>
       </c>
       <c r="H104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -2898,7 +2920,7 @@
         <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -2906,100 +2928,90 @@
         <v>17</v>
       </c>
       <c r="C106" s="1">
+        <v>42167</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="1">
         <v>42205</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H107" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
+    <row r="108" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C108" s="11">
         <v>42213</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D108" s="11">
         <v>42252</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E108" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12" t="s">
+      <c r="G108" s="11"/>
+      <c r="H108" s="12" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="1">
-        <v>42229</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C109" s="1">
-        <v>42241</v>
+        <v>42229</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1">
+        <v>42241</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C111" s="1">
         <v>42245</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H111" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="11">
-        <v>42246</v>
-      </c>
-      <c r="D111" s="11">
-        <v>42252</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="112" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3010,7 +3022,7 @@
         <v>42246</v>
       </c>
       <c r="D112" s="11">
-        <v>42246</v>
+        <v>42252</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>5</v>
@@ -3020,7 +3032,10 @@
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3028,39 +3043,60 @@
         <v>19</v>
       </c>
       <c r="C113" s="11">
-        <v>42252</v>
+        <v>42246</v>
       </c>
       <c r="D113" s="11">
-        <v>42252</v>
+        <v>42246</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="11">
+        <v>42252</v>
+      </c>
+      <c r="D114" s="11">
+        <v>42252</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J114" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C115" s="1">
         <v>42252</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H114" s="25" t="s">
+      <c r="H115" s="25" t="s">
         <v>186</v>
       </c>
     </row>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="190">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -593,10 +593,13 @@
     <t>There were TransactionItems saved with Category 0 (None - non existing category, this should not have happend)</t>
   </si>
   <si>
-    <t>ReOpened</t>
-  </si>
-  <si>
-    <t>Changing (back) the DeepClone method to work with Newtonsoft.Json brought back an old problem: eg Category 108 can became 101 during the serialization</t>
+    <t>Cancelled (ReOpened)</t>
+  </si>
+  <si>
+    <t>Rollbacked it to the MemoryStream based solution</t>
+  </si>
+  <si>
+    <t>Changing (back) the DeepClone method to work with Newtonsoft.Json brought back an old problem: eg Category 108 can became 101 during the deserialization</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -699,9 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="B1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,25 +2830,29 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="2:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="26" t="s">
+    <row r="100" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="15">
         <v>42253</v>
       </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27" t="s">
+      <c r="D100" s="15">
+        <v>42253</v>
+      </c>
+      <c r="E100" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F100" s="27" t="s">
+      <c r="F100" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="28" t="s">
+      <c r="G100" s="15"/>
+      <c r="H100" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J100" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="J100" s="27"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="190">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -500,9 +500,6 @@
     <t>DeepClone method works with binary formatter. It haven't worked with json serialization. Solve this, we will need json serialization later</t>
   </si>
   <si>
-    <t>MonthlyExpenses: if reordered a column, and click Again, the arraw at header remains, but the new list won't be reordered due to it</t>
-  </si>
-  <si>
     <t>Adding expense item with empty Title is possible</t>
   </si>
   <si>
@@ -600,6 +597,9 @@
   </si>
   <si>
     <t>Changing (back) the DeepClone method to work with Newtonsoft.Json brought back an old problem: eg Category 108 can became 101 during the deserialization</t>
+  </si>
+  <si>
+    <t>MonthlyExpenses: if reordered a column, and click Again, the arrow at header remains, but the new list won't be reordered due to it</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1551,7 @@
         <v>42008</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>26</v>
@@ -1788,10 +1788,10 @@
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="J42" s="15"/>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>42252</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>26</v>
@@ -2230,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>123</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
         <v>28</v>
       </c>
       <c r="H94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2744,10 +2744,10 @@
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2827,7 +2827,7 @@
         <v>155</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2841,45 +2841,59 @@
         <v>42253</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="11">
+        <v>42167</v>
+      </c>
+      <c r="D101" s="11">
+        <v>42253</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="J100" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1">
+    </row>
+    <row r="102" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="11">
         <v>42167</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="D102" s="11">
+        <v>42253</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H101" t="s">
+      <c r="G102" s="11"/>
+      <c r="H102" s="12" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="1">
-        <v>42167</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -2893,10 +2907,10 @@
         <v>28</v>
       </c>
       <c r="H103" t="s">
+        <v>157</v>
+      </c>
+      <c r="J103" t="s">
         <v>158</v>
-      </c>
-      <c r="J103" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -2910,7 +2924,7 @@
         <v>28</v>
       </c>
       <c r="H104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -2924,7 +2938,7 @@
         <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -2938,7 +2952,7 @@
         <v>28</v>
       </c>
       <c r="H106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -2952,7 +2966,7 @@
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2966,14 +2980,14 @@
         <v>42252</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -2987,7 +3001,7 @@
         <v>28</v>
       </c>
       <c r="H109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3015,7 @@
         <v>26</v>
       </c>
       <c r="H110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -3015,7 +3029,7 @@
         <v>28</v>
       </c>
       <c r="H111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3036,10 +3050,10 @@
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3060,7 +3074,7 @@
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3074,17 +3088,17 @@
         <v>42252</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
@@ -3098,10 +3112,10 @@
         <v>26</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H115" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="H115" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="212">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -662,6 +662,12 @@
   </si>
   <si>
     <t>Use the file system with file locks? Could 2 async methods use the same file the same time (without exceptions) and mess up things? Could be deadLock in the system due to these lockings?</t>
+  </si>
+  <si>
+    <t>(Originally this was BUG009, but it turned out to be other thing)</t>
+  </si>
+  <si>
+    <t>There are miscategorisations in the system. Probably after changing an existing (already saved) item's category. See the bug description for more details</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,112 +1689,122 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="14">
         <v>42252</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="14">
+        <v>42253</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="14"/>
+      <c r="H34" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7">
+        <v>42253</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="H35" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <v>42253</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" t="s">
         <v>199</v>
       </c>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C37" s="28">
         <v>42253</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C38" s="19">
         <v>42253</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="F37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="17" t="s">
+      <c r="D38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I38" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1">
-        <v>42253</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1">
         <v>42253</v>
       </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>207</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I39"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
@@ -1798,9 +1814,23 @@
         <v>42253</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42253</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>208</v>
       </c>
     </row>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="214">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -668,6 +668,12 @@
   </si>
   <si>
     <t>There are miscategorisations in the system. Probably after changing an existing (already saved) item's category. See the bug description for more details</t>
+  </si>
+  <si>
+    <t>The cause was not changing an existing item's category. Async tasks got killed on exit before that problem was solved. And that was the point where statistics data started to lost. Rollbacked to an old commit, tested; and could reproduce this the first time. Could not reproduce on the latest commit though</t>
+  </si>
+  <si>
+    <t>DB clean: Implement a logic which cleans the DB from statistics with Amount value 0. Those are just garbage. This logic could be run once per year…</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,12 +715,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,16 +737,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,16 +755,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,15 +1068,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
@@ -1088,7 +1084,7 @@
     <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1132,42 +1128,46 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>41991</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" t="s">
+      <c r="C3" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42253</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23">
-        <v>41991</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24" t="s">
+      <c r="C4" s="19">
+        <v>41991</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1203,25 +1203,25 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>41992</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="26" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1234,12 +1234,12 @@
         <v>7</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1252,12 +1252,12 @@
         <v>7</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1306,12 +1306,12 @@
         <v>7</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="13" t="s">
         <v>146</v>
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1347,43 +1347,43 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+    <row r="15" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>42068</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>42088</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="I20"/>
     </row>
-    <row r="21" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I23"/>
     </row>
-    <row r="24" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1689,51 +1689,57 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="11">
         <v>42252</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="11">
         <v>42253</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15" t="s">
+      <c r="G34" s="11"/>
+      <c r="H34" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="11">
         <v>42253</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="11">
+        <v>42253</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1751,44 +1757,44 @@
       </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
+    <row r="37" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="24">
         <v>42253</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="16">
         <v>42253</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="17" t="s">
+      <c r="D38" s="16"/>
+      <c r="F38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -1832,6 +1838,20 @@
       </c>
       <c r="H41" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42253</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1973,77 +1993,77 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D7" s="10">
-        <v>41991</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D7" s="7">
+        <v>41991</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>41992</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>41992</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>41992</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>41992</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2130,56 +2150,56 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D3" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D3" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D4" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D4" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2206,101 +2226,101 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D6" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D6" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D7" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D7" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D8" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D8" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>42008</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>42253</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2512,1096 +2532,1096 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>41987</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>41987</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>41987</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>41987</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>41987</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>41987</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>41987</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>41987</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="E5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>41988</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>42253</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D7" s="11">
         <v>42253</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D8" s="11">
         <v>42253</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D9" s="7">
         <v>42253</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D10" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D11" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D12" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D13" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D13" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="19">
-        <v>41991</v>
-      </c>
-      <c r="D14" s="19">
-        <v>41991</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="C14" s="16">
+        <v>41991</v>
+      </c>
+      <c r="D14" s="16">
+        <v>41991</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D15" s="7">
         <v>42253</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D16" s="10">
-        <v>41991</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="C16" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D16" s="7">
+        <v>41991</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D17" s="10">
-        <v>41991</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D17" s="7">
+        <v>41991</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D18" s="11">
         <v>42008</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D19" s="7">
         <v>42009</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
+      <c r="E19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D20" s="7">
         <v>42009</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
+      <c r="E20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D21" s="11">
         <v>42253</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="E21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="C22" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D22" s="11">
         <v>42253</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15" t="s">
+      <c r="E22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D23" s="11">
         <v>42008</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="C24" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D24" s="7">
         <v>41995</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="C25" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D25" s="11">
         <v>42008</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="10">
-        <v>41991</v>
-      </c>
-      <c r="D26" s="10">
-        <v>41991</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="7">
+        <v>41991</v>
+      </c>
+      <c r="D26" s="7">
+        <v>41991</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="14">
-        <v>41991</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="C27" s="11">
+        <v>41991</v>
+      </c>
+      <c r="D27" s="11">
         <v>42253</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>41992</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="7">
         <v>41992</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11" t="s">
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>41992</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="7">
         <v>42253</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>41992</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="7">
         <v>41992</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10" t="s">
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>41992</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>41992</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10" t="s">
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>41992</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="7">
         <v>41992</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>41992</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="7">
         <v>41992</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10" t="s">
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>41992</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="7">
         <v>41992</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11" t="s">
+      <c r="F34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="11">
         <v>41992</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="11">
         <v>42181</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15" t="s">
+      <c r="E35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <v>41995</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="11">
         <v>42253</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15" t="s">
+      <c r="G36" s="11"/>
+      <c r="H36" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+    <row r="37" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <v>41995</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="11">
         <v>42008</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15" t="s">
+      <c r="F37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <v>41995</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="11">
         <v>42252</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15" t="s">
+      <c r="G38" s="11"/>
+      <c r="H38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>41995</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="7">
         <v>41995</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>41995</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="11">
         <v>42253</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15" t="s">
+      <c r="E40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="11">
         <v>41995</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="11">
         <v>42253</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15" t="s">
+      <c r="G41" s="11"/>
+      <c r="H41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+    <row r="42" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <v>42007</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="11">
         <v>42253</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15" t="s">
+      <c r="F42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+    <row r="43" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="16">
         <v>42008</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="16">
         <v>42253</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>42010</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="7">
         <v>42015</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11" t="s">
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>42015</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="7">
         <v>42253</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>42016</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="7">
         <v>42016</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11" t="s">
+      <c r="F46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>42036</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="7">
         <v>42253</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11" t="s">
+      <c r="F47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -3628,479 +3648,479 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
+    <row r="49" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="11">
         <v>42102</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="11">
         <v>42252</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15" t="s">
+      <c r="F49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>42119</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="7">
         <v>42252</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="E50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="11">
         <v>42119</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="11">
         <v>42156</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15" t="s">
+      <c r="E51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
+    <row r="52" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="11">
         <v>42129</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="11">
         <v>42252</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="14" t="s">
+      <c r="E52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="11">
         <v>42139</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="11">
         <v>42252</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="14" t="s">
+      <c r="E53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15" t="s">
+      <c r="G53" s="11"/>
+      <c r="H53" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>42139</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="7">
         <v>42252</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11" t="s">
+      <c r="E54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>42157</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="7">
         <v>42252</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11" t="s">
+      <c r="E55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
+    <row r="56" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="7">
         <v>42158</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="7">
         <v>42252</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11" t="s">
+      <c r="E56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+    <row r="57" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>42158</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="7">
         <v>42253</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="E57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="11" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+    <row r="58" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="7">
         <v>42158</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="7">
         <v>42252</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="10" t="s">
+      <c r="E58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="11" t="s">
+      <c r="G58" s="7"/>
+      <c r="H58" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
+    <row r="59" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="7">
         <v>42158</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="7">
         <v>42253</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11" t="s">
+      <c r="E59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+    <row r="60" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="7">
         <v>42163</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="7">
         <v>42253</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11" t="s">
+      <c r="G60" s="7"/>
+      <c r="H60" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="7">
         <v>42163</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="7">
         <v>42252</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11" t="s">
+      <c r="G61" s="7"/>
+      <c r="H61" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+    <row r="62" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="7">
         <v>42167</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="7">
         <v>42253</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11" t="s">
+      <c r="G62" s="7"/>
+      <c r="H62" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="7">
         <v>42167</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="7">
         <v>42253</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11" t="s">
+      <c r="G63" s="7"/>
+      <c r="H63" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
+    <row r="64" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="7">
         <v>42213</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="7">
         <v>42252</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
+    <row r="65" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="7">
         <v>42229</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="7">
         <v>42253</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11" t="s">
+      <c r="G65" s="7"/>
+      <c r="H65" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
+    <row r="66" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="7">
         <v>42246</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="7">
         <v>42252</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="E66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="7">
         <v>42246</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="7">
         <v>42246</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="E67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="7">
         <v>42252</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="7">
         <v>42252</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11" t="s">
+      <c r="G68" s="7"/>
+      <c r="H68" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J68" s="11"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="11">
         <v>42253</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="11">
         <v>42253</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="14" t="s">
+      <c r="E69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="15" t="s">
+      <c r="G69" s="11"/>
+      <c r="H69" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="J69" s="15"/>
+      <c r="J69" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B2:J69">

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="216">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Eltűnt a logolás a rendszerből!</t>
   </si>
   <si>
-    <t>Kijelölést összegezzen (külön mezőbe)</t>
-  </si>
-  <si>
     <t>Mennyiség megadása ne legyen kötelező. Folyton 1 db-ot írok ugye oda, ahol nem foglalkozom a mennyiséggel. Viszont ugye az 1 db az abszolút valid, csomó mindenből 1 db-ot vesz az ember. Szóval, lehetne inkább az, hogy a mennyiség nem kötelező; pl üresen hagyható a doboza</t>
   </si>
   <si>
@@ -674,6 +671,15 @@
   </si>
   <si>
     <t>DB clean: Implement a logic which cleans the DB from statistics with Amount value 0. Those are just garbage. This logic could be run once per year…</t>
+  </si>
+  <si>
+    <t>How to: do xaml better. More code reusing, more separation</t>
+  </si>
+  <si>
+    <t>Do not use the system provided WPF UI classes directly. Inherit all of them! Use the custom classes on the UI! (More control)</t>
+  </si>
+  <si>
+    <t>Summarize selection on UI (into separate field)</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1139,7 +1145,7 @@
         <v>42253</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
@@ -1307,7 +1313,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12"/>
     </row>
@@ -1361,27 +1367,30 @@
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="11">
         <v>42088</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="25"/>
+      <c r="D16" s="11">
+        <v>42266</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -1397,7 +1406,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17"/>
     </row>
@@ -1415,7 +1424,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18"/>
     </row>
@@ -1433,7 +1442,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19"/>
     </row>
@@ -1451,7 +1460,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20"/>
     </row>
@@ -1469,7 +1478,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21"/>
     </row>
@@ -1487,7 +1496,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I22" s="5"/>
     </row>
@@ -1505,7 +1514,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I23"/>
     </row>
@@ -1523,7 +1532,7 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -1541,7 +1550,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25"/>
     </row>
@@ -1559,7 +1568,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -1577,7 +1586,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27"/>
     </row>
@@ -1595,7 +1604,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28"/>
     </row>
@@ -1613,7 +1622,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29"/>
     </row>
@@ -1631,7 +1640,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I30"/>
     </row>
@@ -1649,7 +1658,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31"/>
     </row>
@@ -1667,7 +1676,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I32"/>
     </row>
@@ -1685,7 +1694,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I33" s="5"/>
     </row>
@@ -1700,17 +1709,17 @@
         <v>42253</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1730,13 +1739,13 @@
         <v>22</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H35" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1753,7 +1762,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I36"/>
     </row>
@@ -1771,7 +1780,7 @@
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I37" s="25"/>
     </row>
@@ -1788,10 +1797,10 @@
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1808,7 +1817,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I39"/>
     </row>
@@ -1823,7 +1832,7 @@
         <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1837,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1851,7 +1860,39 @@
         <v>7</v>
       </c>
       <c r="H42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4">
+        <v>42266</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5" t="s">
         <v>213</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42266</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1916,10 +1957,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
         <v>138</v>
-      </c>
-      <c r="I2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1936,7 +1977,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,10 +2028,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2077,7 +2118,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2143,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -2144,10 +2185,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" t="s">
         <v>193</v>
-      </c>
-      <c r="I2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2220,10 +2261,10 @@
         <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2247,7 +2288,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2267,7 +2308,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>38</v>
@@ -2290,7 +2331,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>40</v>
@@ -2315,13 +2356,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2378,10 +2419,10 @@
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
         <v>188</v>
-      </c>
-      <c r="H2" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2442,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -2461,27 +2502,27 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -2662,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="12"/>
     </row>
@@ -2690,7 +2731,7 @@
         <v>48</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2714,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -2789,7 +2830,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -2810,7 +2851,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>38</v>
@@ -2835,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>40</v>
@@ -2864,7 +2905,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2925,13 +2966,13 @@
         <v>42008</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>39</v>
@@ -2959,7 +3000,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2980,7 +3021,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3004,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J21" s="12"/>
     </row>
@@ -3098,7 +3139,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>37</v>
@@ -3121,7 +3162,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>41</v>
@@ -3199,7 +3240,7 @@
         <v>54</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3331,10 +3372,10 @@
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="J35" s="12"/>
     </row>
@@ -3356,10 +3397,10 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3397,7 +3438,7 @@
         <v>42252</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>22</v>
@@ -3426,7 +3467,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>69</v>
@@ -3479,7 +3520,7 @@
         <v>72</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3503,7 +3544,7 @@
         <v>75</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3523,13 +3564,13 @@
         <v>22</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J43" s="14"/>
     </row>
@@ -3617,7 +3658,7 @@
         <v>89</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J47" s="8"/>
     </row>
@@ -3642,10 +3683,10 @@
         <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3666,10 +3707,10 @@
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3689,10 +3730,10 @@
         <v>24</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -3715,7 +3756,7 @@
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3777,7 @@
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3759,7 +3800,7 @@
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -3782,7 +3823,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3803,7 +3844,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3824,7 +3865,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3845,10 +3886,10 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3869,10 +3910,10 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3893,7 +3934,7 @@
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3914,7 +3955,7 @@
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -3937,10 +3978,10 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3961,7 +4002,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3982,7 +4023,7 @@
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3996,14 +4037,14 @@
         <v>42252</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4017,14 +4058,14 @@
         <v>42253</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4045,10 +4086,10 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4069,7 +4110,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -4083,17 +4124,17 @@
         <v>42252</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J68" s="8"/>
     </row>
@@ -4115,10 +4156,10 @@
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J69" s="12"/>
     </row>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,22 +1429,22 @@
       <c r="I18"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="24">
         <v>42118</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I19"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -1804,36 +1804,40 @@
       </c>
     </row>
     <row r="39" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="24">
         <v>42253</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="I39"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>42253</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="5" t="s">
         <v>206</v>
       </c>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -307,9 +307,6 @@
     <t>WPF datepciker -&gt; stack overflow</t>
   </si>
   <si>
-    <t>Felhasználó kezelés féle: meg lehessen adni több Root könyvtárat is, azokat el lehessen nevezni. Ki lehessen választani, melyiket akarja most használni…</t>
-  </si>
-  <si>
     <t>* Közlekedés</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>Summarize selection on UI (into separate field)</t>
+  </si>
+  <si>
+    <t>Felhasználó kezelés féle: meg lehessen adni több Root könyvtárat is, azokat el lehessen nevezni. Ki lehessen választani, melyiket akarja most használni… 1be tudjon írni, többől tudjon olvasni</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1145,7 +1145,7 @@
         <v>42253</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12"/>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="I14"/>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I15" s="25"/>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17"/>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18"/>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="25"/>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20"/>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21"/>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I22" s="5"/>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23"/>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I25"/>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I27"/>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I28"/>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I29"/>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30"/>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I31"/>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I32"/>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I33" s="5"/>
     </row>
@@ -1709,17 +1709,17 @@
         <v>42253</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1739,13 +1739,13 @@
         <v>22</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H35" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I36"/>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I37" s="25"/>
     </row>
@@ -1797,10 +1797,10 @@
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="39" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I39" s="25"/>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -1850,7 +1850,7 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I43" s="5"/>
     </row>
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="H44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1961,10 +1961,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
         <v>137</v>
-      </c>
-      <c r="I2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2032,10 +2032,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2147,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -2189,10 +2189,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
         <v>192</v>
-      </c>
-      <c r="I2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2262,13 +2262,13 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>38</v>
@@ -2335,7 +2335,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>40</v>
@@ -2360,13 +2360,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2423,10 +2423,10 @@
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" t="s">
         <v>187</v>
-      </c>
-      <c r="H2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2446,87 +2446,87 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2682,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -2707,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J7" s="12"/>
     </row>
@@ -2735,7 +2735,7 @@
         <v>48</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -2834,7 +2834,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -2855,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>38</v>
@@ -2880,7 +2880,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>40</v>
@@ -2909,7 +2909,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2970,13 +2970,13 @@
         <v>42008</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>39</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="12"/>
     </row>
@@ -3143,7 +3143,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>37</v>
@@ -3166,7 +3166,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>41</v>
@@ -3244,7 +3244,7 @@
         <v>54</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,10 +3376,10 @@
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="J35" s="12"/>
     </row>
@@ -3401,10 +3401,10 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>42252</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>22</v>
@@ -3471,7 +3471,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>69</v>
@@ -3524,7 +3524,7 @@
         <v>72</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>75</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3568,13 +3568,13 @@
         <v>22</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J43" s="14"/>
     </row>
@@ -3662,7 +3662,7 @@
         <v>89</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J47" s="8"/>
     </row>
@@ -3684,13 +3684,13 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3711,10 +3711,10 @@
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3734,10 +3734,10 @@
         <v>24</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3890,10 +3890,10 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3914,10 +3914,10 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -3982,10 +3982,10 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4041,14 +4041,14 @@
         <v>42252</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4062,14 +4062,14 @@
         <v>42253</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4090,10 +4090,10 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -4128,17 +4128,17 @@
         <v>42252</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J68" s="8"/>
     </row>
@@ -4160,10 +4160,10 @@
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J69" s="12"/>
     </row>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="217">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>Felhasználó kezelés féle: meg lehessen adni több Root könyvtárat is, azokat el lehessen nevezni. Ki lehessen választani, melyiket akarja most használni… 1be tudjon írni, többől tudjon olvasni</t>
+  </si>
+  <si>
+    <t>Multiple repos, 1 for write to, all for read from. Possibility for settings custom formatted rows for the repos, eg underlined, bold, italic, backgroundColor</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,6 +1900,20 @@
       </c>
       <c r="H44" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42267</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="219">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -683,6 +683,12 @@
   </si>
   <si>
     <t>Multiple repos, 1 for write to, all for read from. Possibility for settings custom formatted rows for the repos, eg underlined, bold, italic, backgroundColor</t>
+  </si>
+  <si>
+    <t>Statistics Char Y-axis MaxValue: Try out to give the Binding some delay</t>
+  </si>
+  <si>
+    <t>That row, which is currently edited in eg "Add new daily expense", should be highlighted. Eg should be bold</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +739,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -746,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -773,6 +785,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,23 +1500,26 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="11">
         <v>42137</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="D22" s="11">
+        <v>42272</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
@@ -1521,23 +1539,22 @@
       </c>
       <c r="I23"/>
     </row>
-    <row r="24" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="27">
         <v>42139</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -1683,7 +1700,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1718,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1725,7 +1742,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1768,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +1786,7 @@
       </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>16</v>
       </c>
@@ -1787,7 +1804,7 @@
       </c>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>11</v>
       </c>
@@ -1806,7 +1823,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1841,7 @@
       </c>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1859,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1888,7 +1905,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1919,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1914,6 +1931,45 @@
       </c>
       <c r="H45" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7">
+        <v>42270</v>
+      </c>
+      <c r="D46" s="7">
+        <v>42272</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="27">
+        <v>42270</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1986,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,7 +2452,7 @@
   <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="220">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>That row, which is currently edited in eg "Add new daily expense", should be highlighted. Eg should be bold</t>
+  </si>
+  <si>
+    <t>A megvalósítás úgy lett, hogy Add a felirat, ha az ActualItem nincs benn a ListView-ban; Copy ha benne van</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,38 +1525,45 @@
       </c>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="27">
         <v>42139</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="11">
         <v>42139</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27" t="s">
+      <c r="D24" s="11">
+        <v>42272</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="12" t="s">
         <v>119</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1955,20 +1965,24 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="11">
         <v>42270</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28" t="s">
+      <c r="D47" s="11">
+        <v>42272</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12" t="s">
         <v>218</v>
       </c>
     </row>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="221">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>A megvalósítás úgy lett, hogy Add a felirat, ha az ActualItem nincs benn a ListView-ban; Copy ha benne van</t>
+  </si>
+  <si>
+    <t>More use of ViewModels; extracting logic from .xaml.cs to ViewModels</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:I23"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,6 +1987,20 @@
       <c r="G47" s="11"/>
       <c r="H47" s="12" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42286</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="222">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>More use of ViewModels; extracting logic from .xaml.cs to ViewModels</t>
+  </si>
+  <si>
+    <t>Selected-Edited: Selection is lost when AmountChanged moves the row</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,6 +2004,20 @@
       </c>
       <c r="H48" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42302</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="224">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -698,6 +698,12 @@
   </si>
   <si>
     <t>Selected-Edited: Selection is lost when AmountChanged moves the row</t>
+  </si>
+  <si>
+    <t>* Adomány, jótékonyság</t>
+  </si>
+  <si>
+    <t>* Nagy kiadás - pl autó, ház</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -2557,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B19"/>
+  <dimension ref="B2:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,6 +2654,16 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="231">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -703,7 +703,28 @@
     <t>* Adomány, jótékonyság</t>
   </si>
   <si>
-    <t>* Nagy kiadás - pl autó, ház</t>
+    <t>MonthlyExpenses: The Refresh button clears the sort descriptors</t>
+  </si>
+  <si>
+    <t>* Nagy kiadás - pl autó, ház -- Inkáb ne kategória legyen, hanem lehessen megjelölni ilyennek</t>
+  </si>
+  <si>
+    <t>Jelölések - Markings</t>
+  </si>
+  <si>
+    <t>* Nagy, egyszeri kiadás</t>
+  </si>
+  <si>
+    <t>Big, one time expense</t>
+  </si>
+  <si>
+    <t>* Befejezetlen</t>
+  </si>
+  <si>
+    <t>Undone</t>
+  </si>
+  <si>
+    <t>Create markings - another kind of "categories". A transaction could be marked with multiple markers. + There should be +1 db table for them. + Assign colors to each record</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,6 +2045,34 @@
       </c>
       <c r="H49" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42320</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42328</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2563,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B21"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,29 +2690,50 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="233">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t>Create markings - another kind of "categories". A transaction could be marked with multiple markers. + There should be +1 db table for them. + Assign colors to each record</t>
+  </si>
+  <si>
+    <t>AllowsFutureDate: Alt+left,right does not work for dates after today</t>
+  </si>
+  <si>
+    <t>TransportData: csv format. This could be universal among app versions…</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,6 +2079,34 @@
       </c>
       <c r="H51" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42340</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42343</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -388,9 +388,6 @@
     <t>Havi összegző táblázat: header szélén dupla katt, hogy auto rendezze az oszlop szélességet, az elvisz a kiválasztott elem napi kiadásához is</t>
   </si>
   <si>
-    <t>Float mértékegységek</t>
-  </si>
-  <si>
     <t>"Hozzád+Szerkeszt" gomb csinálja azt, amit most csinál a hozzáad, amikor vmi ki van jelölve</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>Az alapérelmezett gomb, amelyik az enter-nek felel meg, legyen kiemelve valahogy</t>
   </si>
   <si>
-    <t>A log-olás mehetne Common.Logging-gal</t>
-  </si>
-  <si>
     <t>* Szórakozás (pl strand, fesztivál, nyaralás, ilyesmi)</t>
   </si>
   <si>
@@ -731,6 +725,12 @@
   </si>
   <si>
     <t>TransportData: csv format. This could be universal among app versions…</t>
+  </si>
+  <si>
+    <t>logging with Common.Logging</t>
+  </si>
+  <si>
+    <t>Float units</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1205,7 +1205,7 @@
         <v>42253</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I12"/>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I14"/>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I15" s="25"/>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="I23" s="28"/>
     </row>
@@ -1599,29 +1599,28 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="27">
         <v>42141</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
@@ -1637,7 +1636,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -1655,7 +1654,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I27"/>
     </row>
@@ -1673,7 +1672,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I28"/>
     </row>
@@ -1691,7 +1690,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I29"/>
     </row>
@@ -1709,7 +1708,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I30"/>
     </row>
@@ -1727,7 +1726,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I31"/>
     </row>
@@ -1745,7 +1744,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I32"/>
     </row>
@@ -1763,7 +1762,7 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I33" s="5"/>
     </row>
@@ -1778,17 +1777,17 @@
         <v>42253</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1808,13 +1807,13 @@
         <v>22</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1830,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I36"/>
     </row>
@@ -1849,7 +1848,7 @@
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I37" s="25"/>
     </row>
@@ -1866,10 +1865,10 @@
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1886,7 +1885,7 @@
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I39" s="25"/>
     </row>
@@ -1904,7 +1903,7 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -1919,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1933,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1950,7 +1949,7 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I43" s="5"/>
     </row>
@@ -1965,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="H44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2001,7 +2000,7 @@
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2022,7 +2021,7 @@
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2036,7 +2035,7 @@
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2050,7 +2049,7 @@
         <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -2064,7 +2063,7 @@
         <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2078,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -2092,7 +2091,7 @@
         <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -2106,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2171,10 +2170,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,10 +2241,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2331,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2356,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -2399,10 +2398,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2477,7 @@
         <v>111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2502,7 +2501,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2521,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>38</v>
@@ -2545,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>40</v>
@@ -2570,13 +2569,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2633,10 +2632,10 @@
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2726,48 +2725,48 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2922,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -2948,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J7" s="12"/>
     </row>
@@ -2976,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -3000,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -3075,7 +3074,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -3096,7 +3095,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>38</v>
@@ -3121,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>40</v>
@@ -3150,7 +3149,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3211,13 +3210,13 @@
         <v>42008</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>39</v>
@@ -3245,7 +3244,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3266,7 +3265,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3290,7 +3289,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" s="12"/>
     </row>
@@ -3384,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>37</v>
@@ -3407,7 +3406,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>41</v>
@@ -3485,7 +3484,7 @@
         <v>54</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3617,10 +3616,10 @@
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J35" s="12"/>
     </row>
@@ -3642,10 +3641,10 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3682,7 @@
         <v>42252</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>22</v>
@@ -3712,7 +3711,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>69</v>
@@ -3765,7 +3764,7 @@
         <v>72</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3789,7 +3788,7 @@
         <v>75</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3809,13 +3808,13 @@
         <v>22</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J43" s="14"/>
     </row>
@@ -3903,7 +3902,7 @@
         <v>89</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J47" s="8"/>
     </row>
@@ -3931,7 +3930,7 @@
         <v>111</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3955,7 +3954,7 @@
         <v>104</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3975,7 +3974,7 @@
         <v>24</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>112</v>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -4068,7 +4067,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4089,7 +4088,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4110,7 +4109,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4131,10 +4130,10 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4155,10 +4154,10 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4179,7 +4178,7 @@
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4199,7 @@
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -4223,10 +4222,10 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4247,7 +4246,7 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4268,7 +4267,7 @@
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4282,14 +4281,14 @@
         <v>42252</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4303,14 +4302,14 @@
         <v>42253</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4331,10 +4330,10 @@
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="67" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4355,7 +4354,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -4369,17 +4368,17 @@
         <v>42252</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="J68" s="8"/>
     </row>
@@ -4401,10 +4400,10 @@
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J69" s="12"/>
     </row>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="234">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>Float units</t>
+  </si>
+  <si>
+    <t>"See logs" menu item</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,6 +2109,20 @@
       </c>
       <c r="H53" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42357</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="237">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -734,6 +734,15 @@
   </si>
   <si>
     <t>"See logs" menu item</t>
+  </si>
+  <si>
+    <t>First starting Exin, TransportData process failed; crashed with unhandled exception; but the Exin app behaved like it could work</t>
+  </si>
+  <si>
+    <t>The app was really usable; the TransportData process probably crashed after the sqlite file was successfully created.</t>
+  </si>
+  <si>
+    <t>First starting Exin, TransportData process failed; because I closed the console window. The Exin app, despite this, continued running; until the first sqlite query; and then crashed with an error message like "no such table". It should have been crashed with "TransportData process failed"</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2050,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>14</v>
       </c>
@@ -2124,6 +2133,44 @@
       <c r="H54" t="s">
         <v>233</v>
       </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42361</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42361</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>234</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42361</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I56" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B2:I38">

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="241">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -743,6 +743,22 @@
   </si>
   <si>
     <t>First starting Exin, TransportData process failed; because I closed the console window. The Exin app, despite this, continued running; until the first sqlite query; and then crashed with an error message like "no such table". It should have been crashed with "TransportData process failed"</t>
+  </si>
+  <si>
+    <t>When editing a record, Add/Copy should do this: Finish editing the record in list, but keep the data in the editor. Technically: ActualExpenseItem = record.DeepCopy</t>
+  </si>
+  <si>
+    <t>Chart: Profit could be shown also now on a js diagram; it's just expense-income</t>
+  </si>
+  <si>
+    <t>Daily Summary UI: Can't press DownArrow in the list, it will lost the focus; de TitleBox will get the focus. Also, if making selection in the ListView, the first 2 times it will add -1 to the indexes. So if you select rows 4-9, 3-8 will be selected</t>
+  </si>
+  <si>
+    <t>Multiple repo: use case:
+* Family expenses (1+ person)
+* Pending expenses (1 person)
+* Multiple many source (1 person)
+--&gt; They should be organizable into Groups or Folders!</t>
   </si>
 </sst>
 </file>
@@ -812,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -842,6 +858,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,6 +2190,62 @@
         <v>236</v>
       </c>
       <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1">
+        <v>42397</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1">
+        <v>42400</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42415</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1">
+        <v>42417</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:I38">

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -751,14 +751,15 @@
     <t>Chart: Profit could be shown also now on a js diagram; it's just expense-income</t>
   </si>
   <si>
-    <t>Daily Summary UI: Can't press DownArrow in the list, it will lost the focus; de TitleBox will get the focus. Also, if making selection in the ListView, the first 2 times it will add -1 to the indexes. So if you select rows 4-9, 3-8 will be selected</t>
-  </si>
-  <si>
     <t>Multiple repo: use case:
 * Family expenses (1+ person)
 * Pending expenses (1 person)
 * Multiple many source (1 person)
 --&gt; They should be organizable into Groups or Folders!</t>
+  </si>
+  <si>
+    <t>Daily Summary UI: Can't press DownArrow in the list, it will lost the focus; de TitleBox will get the focus. Also, if making selection in the ListView, the first 2 times it will add -1 to the indexes. So if you select rows 4-9, 3-8 will be selected
+--&gt; Only when the ListView is sorted!</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1169,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2220,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>16</v>
       </c>
@@ -2229,8 +2230,8 @@
       <c r="F59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H59" t="s">
-        <v>239</v>
+      <c r="H59" s="29" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -2244,7 +2245,7 @@
         <v>7</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="243">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -760,6 +760,12 @@
   <si>
     <t>Daily Summary UI: Can't press DownArrow in the list, it will lost the focus; de TitleBox will get the focus. Also, if making selection in the ListView, the first 2 times it will add -1 to the indexes. So if you select rows 4-9, 3-8 will be selected
 --&gt; Only when the ListView is sorted!</t>
+  </si>
+  <si>
+    <t>Version number into logs, into app/Help</t>
+  </si>
+  <si>
+    <t>TransportData: It shows a Log.Warn when starting a new app, that the Repository is empty. Sure, since we wanted to create a new, empty one :) We should create a CLI flag that tells this tool if the app is starting the first time</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,6 +2252,34 @@
       </c>
       <c r="H60" s="29" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42438</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1">
+        <v>42463</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="244">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>TransportData: It shows a Log.Warn when starting a new app, that the Repository is empty. Sure, since we wanted to create a new, empty one :) We should create a CLI flag that tells this tool if the app is starting the first time</t>
+  </si>
+  <si>
+    <t>Comment TextBox is now multilne, Enter inserts a new line into it. Ctrl+Enter activates the default button. Tell the user this at least once, when pressing Enter in that field</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,6 +2283,20 @@
       </c>
       <c r="H62" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42463</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="245">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>Comment TextBox is now multilne, Enter inserts a new line into it. Ctrl+Enter activates the default button. Tell the user this at least once, when pressing Enter in that field</t>
+  </si>
+  <si>
+    <t>When changing anything in the app what writes into MainSettings.xml, some properties will be serialized wrong, and cause the app the next time to crash at start!</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,6 +2300,23 @@
       </c>
       <c r="H63" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1">
+        <v>42463</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H64" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="246">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>When changing anything in the app what writes into MainSettings.xml, some properties will be serialized wrong, and cause the app the next time to crash at start!</t>
+  </si>
+  <si>
+    <t>Make the JS chart safe - If it can't load, that surface should be empty, but the app should start. Once it happened to me that somehow the WebBrowser did not want to find the path to its html file, the app did not start. Tried again and again, since the prev day it worked. After restarting the OS, it worked again</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,6 +2320,20 @@
       </c>
       <c r="H64" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42473</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="246">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,6 +2328,12 @@
       </c>
       <c r="C65" s="1">
         <v>42473</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42498</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>24</v>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="246">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,6 +2311,12 @@
       </c>
       <c r="C64" s="1">
         <v>42463</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42498</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>22</v>

--- a/Helpers/Exin issues.xlsx
+++ b/Helpers/Exin issues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Norbi\Development\Exin\Helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Norbi\Development\Git\Exin\Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="249">
   <si>
     <t>Havi kiadásoknál a gombot alulról vigyük át felülre, mert ott már úgyis foglalt a hely</t>
   </si>
@@ -776,11 +776,22 @@
   <si>
     <t>Make the JS chart safe - If it can't load, that surface should be empty, but the app should start. Once it happened to me that somehow the WebBrowser did not want to find the path to its html file, the app did not start. Tried again and again, since the prev day it worked. After restarting the OS, it worked again</t>
   </si>
+  <si>
+    <t>Menu item for About, which at least tells the version number</t>
+  </si>
+  <si>
+    <t>Multiline comment vs xml</t>
+  </si>
+  <si>
+    <t>When checking on startup if a process is already running, also check for:
+1) it is the same exe file, not another one in another directory
+2) if there is an existing process, does it not exit right now?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1181,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,6 +2357,48 @@
       </c>
       <c r="H65" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42500</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1">
+        <v>42671</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42738</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
